--- a/HW5/HW5_data_files/TrafAsmtUE_2025.xlsx
+++ b/HW5/HW5_data_files/TrafAsmtUE_2025.xlsx
@@ -883,7 +883,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -972,100 +972,100 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>25.511099999999999</v>
+        <v>88.524699999999996</v>
       </c>
       <c r="D14">
-        <v>1.7007399999999999</v>
+        <v>0.98360800000000004</v>
       </c>
       <c r="E14">
-        <v>35.250999999999998</v>
+        <v>7.3583800000000004</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <f>C14*2*G14</f>
-        <v>127.55549999999999</v>
+        <v>531.14819999999997</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>50.6661</v>
+        <v>83.957499999999996</v>
       </c>
       <c r="D15">
-        <v>1.6888700000000001</v>
+        <v>0.93286100000000005</v>
       </c>
       <c r="E15">
-        <v>74.812899999999999</v>
+        <v>6.9885299999999999</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <f>C15*2*G15</f>
-        <v>557.32709999999997</v>
+        <v>503.745</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>25.296500000000002</v>
+        <v>80.621700000000004</v>
       </c>
       <c r="D16">
-        <v>1.6864399999999999</v>
+        <v>1.3436900000000001</v>
       </c>
       <c r="E16">
-        <v>81.014300000000006</v>
+        <v>22.242999999999999</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H16">
         <f>C16*2*G16</f>
-        <v>303.55799999999999</v>
+        <v>725.59530000000007</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
       <c r="C17">
-        <v>72.037400000000005</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>1.60083</v>
+        <v>1.23333</v>
       </c>
       <c r="E17">
-        <v>67.696100000000001</v>
+        <v>24.438400000000001</v>
       </c>
       <c r="F17">
         <v>13</v>
@@ -1075,61 +1075,61 @@
       </c>
       <c r="H17">
         <f>C17*2*G17</f>
-        <v>936.48620000000005</v>
+        <v>962</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>45.995100000000001</v>
+        <v>72.037400000000005</v>
       </c>
       <c r="D18">
-        <v>1.5331699999999999</v>
+        <v>1.60083</v>
       </c>
       <c r="E18">
-        <v>29.7288</v>
+        <v>67.696100000000001</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="H18">
         <f>C18*2*G18</f>
-        <v>321.96570000000003</v>
+        <v>936.48620000000005</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>35.4938</v>
+        <v>59.3643</v>
       </c>
       <c r="D19">
-        <v>1.4197500000000001</v>
+        <v>1.31921</v>
       </c>
       <c r="E19">
-        <v>36.569600000000001</v>
+        <v>20.859300000000001</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H19">
         <f>C19*2*G19</f>
-        <v>425.92560000000003</v>
+        <v>534.27869999999996</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1137,80 +1137,80 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>80.621700000000004</v>
+        <v>57.079300000000003</v>
       </c>
       <c r="D20">
-        <v>1.3436900000000001</v>
+        <v>0.95132099999999997</v>
       </c>
       <c r="E20">
-        <v>22.242999999999999</v>
+        <v>15.4091</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="H20">
         <f>C20*2*G20</f>
-        <v>725.59530000000007</v>
+        <v>742.03090000000009</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>59.3643</v>
+        <v>50.6661</v>
       </c>
       <c r="D21">
-        <v>1.31921</v>
+        <v>1.6888700000000001</v>
       </c>
       <c r="E21">
-        <v>20.859300000000001</v>
+        <v>74.812899999999999</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H21">
         <f>C21*2*G21</f>
-        <v>534.27869999999996</v>
+        <v>557.32709999999997</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>45.995100000000001</v>
       </c>
       <c r="D22">
-        <v>1.23333</v>
+        <v>1.5331699999999999</v>
       </c>
       <c r="E22">
-        <v>24.438400000000001</v>
+        <v>29.7288</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="H22">
         <f>C22*2*G22</f>
-        <v>962</v>
+        <v>321.96570000000003</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1218,188 +1218,188 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>88.524699999999996</v>
+        <v>43.183999999999997</v>
       </c>
       <c r="D23">
-        <v>0.98360800000000004</v>
+        <v>0.95964400000000005</v>
       </c>
       <c r="E23">
-        <v>7.3583800000000004</v>
+        <v>14.3431</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <f>C23*2*G23</f>
-        <v>531.14819999999997</v>
+        <v>518.20799999999997</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>43.183999999999997</v>
+        <v>36.816000000000003</v>
       </c>
       <c r="D24">
-        <v>0.95964400000000005</v>
+        <v>0.40906700000000001</v>
       </c>
       <c r="E24">
-        <v>14.3431</v>
+        <v>7.0082000000000004</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H24">
         <f>C24*2*G24</f>
-        <v>518.20799999999997</v>
+        <v>257.71199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>57.079300000000003</v>
+        <v>35.4938</v>
       </c>
       <c r="D25">
-        <v>0.95132099999999997</v>
+        <v>1.4197500000000001</v>
       </c>
       <c r="E25">
-        <v>15.4091</v>
+        <v>36.569600000000001</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <f>C25*2*G25</f>
-        <v>742.03090000000009</v>
+        <v>425.92560000000003</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>33.374099999999999</v>
       </c>
       <c r="D26">
-        <v>0.93333299999999997</v>
+        <v>0.74164600000000003</v>
       </c>
       <c r="E26">
-        <v>12.8178</v>
+        <v>13.540800000000001</v>
       </c>
       <c r="F26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H26">
         <f>C26*2*G26</f>
-        <v>308</v>
+        <v>433.86329999999998</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>83.957499999999996</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>0.93286100000000005</v>
+        <v>0.93333299999999997</v>
       </c>
       <c r="E27">
-        <v>6.9885299999999999</v>
+        <v>12.8178</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H27">
         <f>C27*2*G27</f>
-        <v>503.745</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>0.86666699999999997</v>
+        <v>0.31111100000000003</v>
       </c>
       <c r="E28">
-        <v>13.2713</v>
+        <v>5.0011299999999999</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H28">
         <f>C28*2*G28</f>
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>33.374099999999999</v>
+        <v>25.511099999999999</v>
       </c>
       <c r="D29">
-        <v>0.74164600000000003</v>
+        <v>1.7007399999999999</v>
       </c>
       <c r="E29">
-        <v>13.540800000000001</v>
+        <v>35.250999999999998</v>
       </c>
       <c r="F29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H29">
         <f>C29*2*G29</f>
-        <v>433.86329999999998</v>
+        <v>127.55549999999999</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -1407,80 +1407,80 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>36.816000000000003</v>
+        <v>25.441500000000001</v>
       </c>
       <c r="D30">
-        <v>0.40906700000000001</v>
+        <v>0.28268399999999999</v>
       </c>
       <c r="E30">
-        <v>7.0082000000000004</v>
+        <v>6.0007700000000002</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <f>C30*2*G30</f>
-        <v>257.71199999999999</v>
+        <v>152.649</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>25.296500000000002</v>
       </c>
       <c r="D31">
-        <v>0.31111100000000003</v>
+        <v>1.6864399999999999</v>
       </c>
       <c r="E31">
-        <v>5.0011299999999999</v>
+        <v>81.014300000000006</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <f>C31*2*G31</f>
-        <v>140</v>
+        <v>303.55799999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>25.441500000000001</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>0.28268399999999999</v>
+        <v>0.86666699999999997</v>
       </c>
       <c r="E32">
-        <v>6.0007700000000002</v>
+        <v>13.2713</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <f>C32*2*G32</f>
-        <v>152.649</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B35">
         <f>SUM(H14:H33)/F9</f>
-        <v>22.158933023852267</v>
+        <v>22.158933023852274</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A14:H33">
-    <sortCondition descending="1" ref="D14"/>
+    <sortCondition descending="1" ref="C14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
